--- a/Meme Generator - Suggested Tasks List.xlsx
+++ b/Meme Generator - Suggested Tasks List.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\assaf\Dropbox\CaJan19\Days\Day30-Sprint2\Sprint2 Project\Sprint 2 Project -Ultimate Mem Creator\Sprint2 Give Away\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\itai\Desktop\meme-gen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F5A1A82-F9BF-4BF8-AB1C-930577E80ECE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20C3D832-31C2-494F-A059-251B90FF25B5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -177,12 +177,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -201,7 +212,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ערכת נושא Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -502,350 +513,367 @@
   </sheetPr>
   <dimension ref="A2:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.7265625" customWidth="1"/>
-    <col min="2" max="2" width="41.26953125" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="41.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="B2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="2">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2">
-        <v>1</v>
-      </c>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="C3" s="4">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="2">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2">
-        <v>2</v>
-      </c>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4">
+        <v>2</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="2">
-        <v>1</v>
-      </c>
-      <c r="D5" s="2">
-        <v>2</v>
-      </c>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="C5" s="4">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4">
+        <v>2</v>
+      </c>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="2">
-        <v>1</v>
-      </c>
-      <c r="D6" s="2">
-        <v>1</v>
-      </c>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="C6" s="4">
+        <v>1</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="2">
-        <v>1</v>
-      </c>
-      <c r="D7" s="2">
-        <v>1</v>
-      </c>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="C7" s="4">
+        <v>1</v>
+      </c>
+      <c r="D7" s="4">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="2">
-        <v>1</v>
-      </c>
-      <c r="D8" s="2">
-        <v>1</v>
-      </c>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="C8" s="4">
+        <v>1</v>
+      </c>
+      <c r="D8" s="4">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="2">
-        <v>1</v>
-      </c>
-      <c r="D9" s="2">
-        <v>2</v>
-      </c>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="C9" s="4">
+        <v>1</v>
+      </c>
+      <c r="D9" s="4">
+        <v>2</v>
+      </c>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="4">
-        <v>2</v>
-      </c>
-      <c r="D10" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="C10" s="5">
+        <v>2</v>
+      </c>
+      <c r="D10" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="4">
-        <v>2</v>
-      </c>
-      <c r="D11" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="C11" s="5">
+        <v>2</v>
+      </c>
+      <c r="D11" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="4">
-        <v>2</v>
-      </c>
-      <c r="D12" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="C12" s="5">
+        <v>2</v>
+      </c>
+      <c r="D12" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="4">
-        <v>2</v>
-      </c>
-      <c r="D13" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="C13" s="5">
+        <v>2</v>
+      </c>
+      <c r="D13" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="5">
         <v>3</v>
       </c>
-      <c r="D14" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+      <c r="D14" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="5">
         <v>3</v>
       </c>
-      <c r="D15" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="D15" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="5">
         <v>3</v>
       </c>
-      <c r="D16" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+      <c r="D16" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="5">
         <v>3</v>
       </c>
-      <c r="D17" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+      <c r="D17" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="5">
         <v>3</v>
       </c>
-      <c r="D18" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+      <c r="D18" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="5">
         <v>3</v>
       </c>
-      <c r="D19" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="B22" s="4" t="s">
+      <c r="D19" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+    </row>
+    <row r="22" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B22" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="5">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="B23" s="4" t="s">
+      <c r="D22" s="6"/>
+    </row>
+    <row r="23" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B23" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="5">
         <v>4</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="B24" s="4" t="s">
+      <c r="D23" s="6"/>
+    </row>
+    <row r="24" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B24" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="5">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="B25" s="4" t="s">
+      <c r="D24" s="6"/>
+    </row>
+    <row r="25" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B25" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="5">
         <v>4</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="B26" s="4" t="s">
+      <c r="D25" s="6"/>
+    </row>
+    <row r="26" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B26" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="B27" s="4" t="s">
+      <c r="D26" s="6"/>
+    </row>
+    <row r="27" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B27" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="B28" s="4" t="s">
+      <c r="D27" s="6"/>
+    </row>
+    <row r="28" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B28" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4" t="s">
+      <c r="D28" s="6"/>
+    </row>
+    <row r="29" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="B30" s="4" t="s">
+      <c r="D29" s="6"/>
+    </row>
+    <row r="30" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B30" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30" s="5">
         <v>5</v>
       </c>
+      <c r="D30" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Meme Generator - Suggested Tasks List.xlsx
+++ b/Meme Generator - Suggested Tasks List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\itai\Desktop\meme-gen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20C3D832-31C2-494F-A059-251B90FF25B5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1152C2E9-3B46-4ED2-8826-D518824CFEC1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -145,7 +145,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -164,6 +164,12 @@
         <bgColor rgb="FFD9EAD3"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -177,7 +183,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -194,6 +200,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -511,10 +518,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A2:E30"/>
+  <dimension ref="A2:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -523,7 +530,7 @@
     <col min="2" max="2" width="41.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -540,7 +547,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -554,8 +561,9 @@
         <v>1</v>
       </c>
       <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F3" s="8"/>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -569,8 +577,9 @@
         <v>2</v>
       </c>
       <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F4" s="8"/>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -584,8 +593,9 @@
         <v>2</v>
       </c>
       <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F5" s="8"/>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -599,8 +609,9 @@
         <v>1</v>
       </c>
       <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F6" s="8"/>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -614,8 +625,9 @@
         <v>1</v>
       </c>
       <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F7" s="8"/>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -629,8 +641,9 @@
         <v>1</v>
       </c>
       <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F8" s="8"/>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -644,8 +657,9 @@
         <v>2</v>
       </c>
       <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F9" s="8"/>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>6</v>
       </c>
@@ -658,8 +672,9 @@
       <c r="D10" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F10" s="8"/>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>6</v>
       </c>
@@ -672,8 +687,9 @@
       <c r="D11" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F11" s="8"/>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
@@ -686,8 +702,9 @@
       <c r="D12" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F12" s="8"/>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>9</v>
       </c>
@@ -700,8 +717,9 @@
       <c r="D13" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F13" s="8"/>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>14</v>
       </c>
@@ -714,8 +732,9 @@
       <c r="D14" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F14" s="8"/>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>9</v>
       </c>
@@ -729,7 +748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>9</v>
       </c>
@@ -743,7 +762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>9</v>
       </c>
@@ -756,8 +775,9 @@
       <c r="D17" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F17" s="8"/>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>9</v>
       </c>
@@ -770,8 +790,9 @@
       <c r="D18" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F18" s="8"/>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>22</v>
       </c>
@@ -785,15 +806,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
     </row>
-    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
     </row>
-    <row r="22" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B22" s="3" t="s">
         <v>24</v>
       </c>
@@ -802,7 +823,7 @@
       </c>
       <c r="D22" s="6"/>
     </row>
-    <row r="23" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B23" s="3" t="s">
         <v>35</v>
       </c>
@@ -810,8 +831,9 @@
         <v>4</v>
       </c>
       <c r="D23" s="6"/>
-    </row>
-    <row r="24" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="F23" s="8"/>
+    </row>
+    <row r="24" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B24" s="3" t="s">
         <v>25</v>
       </c>
@@ -820,7 +842,7 @@
       </c>
       <c r="D24" s="6"/>
     </row>
-    <row r="25" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B25" s="3" t="s">
         <v>26</v>
       </c>
@@ -829,7 +851,7 @@
       </c>
       <c r="D25" s="6"/>
     </row>
-    <row r="26" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B26" s="3" t="s">
         <v>27</v>
       </c>
@@ -837,8 +859,9 @@
         <v>5</v>
       </c>
       <c r="D26" s="6"/>
-    </row>
-    <row r="27" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="F26" s="8"/>
+    </row>
+    <row r="27" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B27" s="3" t="s">
         <v>28</v>
       </c>
@@ -846,8 +869,9 @@
         <v>5</v>
       </c>
       <c r="D27" s="6"/>
-    </row>
-    <row r="28" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="F27" s="8"/>
+    </row>
+    <row r="28" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B28" s="3" t="s">
         <v>29</v>
       </c>
@@ -855,8 +879,9 @@
         <v>5</v>
       </c>
       <c r="D28" s="6"/>
-    </row>
-    <row r="29" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="F28" s="8"/>
+    </row>
+    <row r="29" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="B29" s="3" t="s">
         <v>30</v>
@@ -866,7 +891,7 @@
       </c>
       <c r="D29" s="6"/>
     </row>
-    <row r="30" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B30" s="3" t="s">
         <v>31</v>
       </c>
